--- a/Analytics/D2/TeamFirstCard_d2.xlsx
+++ b/Analytics/D2/TeamFirstCard_d2.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Hone_and15" r:id="rId3" sheetId="1"/>
-    <sheet name="Hfifteen_and30" r:id="rId4" sheetId="2"/>
+    <sheet name="Hfifteen_and34" r:id="rId4" sheetId="2"/>
     <sheet name="Hthirty_and45" r:id="rId5" sheetId="3"/>
     <sheet name="Hfortyfive_and60" r:id="rId6" sheetId="4"/>
     <sheet name="Hsixty_and75" r:id="rId7" sheetId="5"/>
     <sheet name="Hseventyfive_tomatchend" r:id="rId8" sheetId="6"/>
     <sheet name="Aone_and15" r:id="rId9" sheetId="7"/>
-    <sheet name="Afifteen_and30" r:id="rId10" sheetId="8"/>
+    <sheet name="Afifteen_and34" r:id="rId10" sheetId="8"/>
     <sheet name="Athirty_and45" r:id="rId11" sheetId="9"/>
     <sheet name="Afortyfive_and60" r:id="rId12" sheetId="10"/>
     <sheet name="Asixty_and75" r:id="rId13" sheetId="11"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="39">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -424,10 +424,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -435,10 +435,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -457,7 +457,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -468,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
         <v>5.0</v>
@@ -479,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -501,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -512,7 +512,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -523,10 +523,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -545,7 +545,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -1007,10 +1007,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +1018,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
@@ -1029,10 +1029,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="5">
@@ -1040,10 +1040,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,10 +1062,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
@@ -1073,10 +1073,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -1084,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -1095,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -1106,10 +1106,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -1120,7 +1120,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -1128,10 +1128,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -1139,10 +1139,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -1150,10 +1150,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -1161,10 +1161,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
@@ -1194,10 +1194,10 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1230,7 @@
         <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -1238,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
         <v>5.0</v>
@@ -1249,10 +1249,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -1260,10 +1260,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -1271,10 +1271,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -1282,10 +1282,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -1293,10 +1293,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -1307,7 +1307,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -1315,10 +1315,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -1326,10 +1326,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -1337,10 +1337,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -1348,10 +1348,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -1359,10 +1359,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
@@ -1370,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -1381,7 +1381,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -1392,10 +1392,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -1403,10 +1403,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -1417,7 +1417,7 @@
         <v>31</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1898,10 +1898,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -1909,7 +1909,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -1920,7 +1920,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -1931,10 +1931,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -1942,7 +1942,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -2264,7 +2264,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -2272,10 +2272,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="4">
@@ -2286,7 +2286,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -2297,7 +2297,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -2305,10 +2305,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -2316,10 +2316,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
@@ -2330,7 +2330,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -2338,7 +2338,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -2349,7 +2349,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -2360,10 +2360,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -2371,10 +2371,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -2382,10 +2382,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -2393,10 +2393,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -2407,7 +2407,7 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -2418,7 +2418,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -2440,7 +2440,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -2470,10 +2470,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -2481,10 +2481,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -2492,10 +2492,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -2503,10 +2503,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -2517,7 +2517,7 @@
         <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -2528,7 +2528,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -2536,10 +2536,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -2547,10 +2547,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -2558,10 +2558,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -2569,10 +2569,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -2580,10 +2580,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -2591,7 +2591,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -2602,7 +2602,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -2613,7 +2613,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -2624,7 +2624,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -2635,10 +2635,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -2646,20 +2646,9 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Analytics/D2/TeamFirstCard_d2.xlsx
+++ b/Analytics/D2/TeamFirstCard_d2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="35">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -67,76 +67,64 @@
     <t>12</t>
   </si>
   <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>Paderborn</t>
+  </si>
+  <si>
+    <t>Regensburg</t>
+  </si>
+  <si>
+    <t>Elversberg</t>
+  </si>
+  <si>
+    <t>Greuther Furth</t>
+  </si>
+  <si>
+    <t>PreuÃŸen MÃ¼nster</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Fortuna Dusseldorf</t>
+  </si>
+  <si>
+    <t>Hertha</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Braunschweig</t>
+  </si>
+  <si>
+    <t>Hannover</t>
+  </si>
+  <si>
+    <t>Ulm</t>
+  </si>
+  <si>
+    <t>FC Koln</t>
+  </si>
+  <si>
+    <t>Kaiserslautern</t>
+  </si>
+  <si>
+    <t>Magdeburg</t>
+  </si>
+  <si>
+    <t>Schalke 04</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>Nurnberg</t>
-  </si>
-  <si>
-    <t>Schalke 04</t>
-  </si>
-  <si>
-    <t>Hannover</t>
-  </si>
-  <si>
-    <t>Fortuna Dusseldorf</t>
-  </si>
-  <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>St Pauli</t>
-  </si>
-  <si>
-    <t>Wehen</t>
-  </si>
-  <si>
-    <t>Greuther Furth</t>
-  </si>
-  <si>
-    <t>Hansa Rostock</t>
-  </si>
-  <si>
-    <t>Kaiserslautern</t>
-  </si>
-  <si>
-    <t>Elversberg</t>
-  </si>
-  <si>
-    <t>Osnabruck</t>
-  </si>
-  <si>
-    <t>Hertha</t>
-  </si>
-  <si>
-    <t>Magdeburg</t>
-  </si>
-  <si>
-    <t>Hamburg</t>
-  </si>
-  <si>
-    <t>Braunschweig</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Paderborn</t>
-  </si>
-  <si>
-    <t>Karlsruhe</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,10 +192,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,10 +203,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,10 +214,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,10 +225,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,10 +236,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,10 +247,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,10 +258,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,10 +269,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,10 +280,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +291,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -314,7 +302,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -325,53 +313,9 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -391,7 +335,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -402,10 +346,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -413,10 +357,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -424,10 +368,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -435,10 +379,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -446,10 +390,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,7 +404,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -468,10 +412,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -479,10 +423,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -490,10 +434,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -501,10 +445,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -512,10 +456,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -523,76 +467,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -611,7 +489,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -622,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -633,10 +511,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -644,10 +522,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -655,10 +533,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +544,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -677,10 +555,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -688,97 +566,9 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -798,7 +588,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -809,10 +599,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +610,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -831,10 +621,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -842,10 +632,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -853,10 +643,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -864,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -875,10 +665,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -886,10 +676,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -897,86 +687,9 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1010,7 +723,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +731,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -1029,10 +742,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -1040,10 +753,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +764,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,10 +775,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1073,10 +786,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1084,10 +797,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -1095,10 +808,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -1106,10 +819,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1117,87 +830,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1227,10 +863,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1238,10 +874,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1249,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1260,10 +896,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1271,10 +907,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1282,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1293,10 +929,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1304,10 +940,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1315,10 +951,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -1329,7 +965,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1337,10 +973,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1348,75 +984,31 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1447,10 +1039,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1458,10 +1050,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1469,10 +1061,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1480,10 +1072,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1491,10 +1083,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1502,10 +1094,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1513,10 +1105,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1524,10 +1116,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1535,10 +1127,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -1546,10 +1138,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1557,10 +1149,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1568,76 +1160,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1667,10 +1193,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -1678,10 +1204,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1689,10 +1215,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1700,10 +1226,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1237,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1722,10 +1248,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1733,10 +1259,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1744,97 +1270,9 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1865,10 +1303,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1876,10 +1314,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1887,10 +1325,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1898,10 +1336,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1909,10 +1347,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1920,10 +1358,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1931,10 +1369,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1380,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1953,10 +1391,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -1964,7 +1402,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1975,75 +1413,9 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2063,7 +1435,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2074,10 +1446,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -2085,10 +1457,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2096,10 +1468,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -2107,10 +1479,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -2118,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -2129,7 +1501,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -2140,10 +1512,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -2151,10 +1523,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -2162,10 +1534,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -2173,7 +1545,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -2184,53 +1556,9 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2250,7 +1578,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2261,10 +1589,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -2272,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2283,10 +1611,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -2294,10 +1622,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -2305,10 +1633,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2316,10 +1644,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2327,10 +1655,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -2338,10 +1666,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -2349,10 +1677,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -2360,10 +1688,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -2371,10 +1699,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -2382,65 +1710,32 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +1754,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2470,10 +1765,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -2481,10 +1776,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -2492,10 +1787,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -2503,10 +1798,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -2514,10 +1809,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -2525,10 +1820,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2536,10 +1831,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -2547,10 +1842,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -2558,10 +1853,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -2569,10 +1864,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -2580,75 +1875,9 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Analytics/D2/TeamFirstCard_d2.xlsx
+++ b/Analytics/D2/TeamFirstCard_d2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="36">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -73,6 +73,9 @@
     <t>Paderborn</t>
   </si>
   <si>
+    <t>Braunschweig</t>
+  </si>
+  <si>
     <t>Regensburg</t>
   </si>
   <si>
@@ -97,9 +100,6 @@
     <t>Hamburg</t>
   </si>
   <si>
-    <t>Braunschweig</t>
-  </si>
-  <si>
     <t>Hannover</t>
   </si>
   <si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>Nurnberg</t>
@@ -239,7 +242,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -335,7 +338,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -346,7 +349,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -357,7 +360,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -368,7 +371,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -382,7 +385,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -390,7 +393,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -423,10 +426,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -434,7 +437,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -445,7 +448,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -456,7 +459,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -489,7 +492,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -500,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -511,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -522,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -533,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -544,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -555,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -566,9 +569,31 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -588,7 +613,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -599,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -610,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -632,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -654,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -665,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -676,7 +701,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -687,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -720,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -731,7 +756,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -764,10 +789,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -775,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -786,7 +811,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -808,7 +833,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -819,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -830,9 +855,20 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -863,7 +899,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -874,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -896,10 +932,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -907,10 +943,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -918,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -929,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -940,7 +976,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -951,7 +987,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -962,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -973,7 +1009,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -984,7 +1020,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -995,7 +1031,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -1006,9 +1042,20 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1050,10 +1097,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1061,7 +1108,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -1072,10 +1119,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1083,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -1094,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1105,7 +1152,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1116,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1127,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1138,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1160,9 +1207,20 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1193,10 +1251,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1204,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -1215,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1226,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -1237,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -1248,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1270,7 +1328,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1303,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -1314,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -1347,7 +1405,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -1358,7 +1416,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1369,7 +1427,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1391,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1402,7 +1460,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1413,7 +1471,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1435,7 +1493,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1479,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1490,7 +1548,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1523,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1556,7 +1614,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1578,7 +1636,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1600,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1611,7 +1669,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -1622,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1633,10 +1691,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1644,10 +1702,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1655,10 +1713,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1666,10 +1724,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1688,7 +1746,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1699,7 +1757,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1710,7 +1768,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1721,7 +1779,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -1732,7 +1790,7 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -1754,7 +1812,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1787,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -1809,7 +1867,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1831,7 +1889,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1842,7 +1900,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1853,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1864,7 +1922,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1875,9 +1933,20 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.0</v>
       </c>
     </row>
